--- a/September'21/29.09.2021/Bank Statement August-2021.xlsx
+++ b/September'21/29.09.2021/Bank Statement August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -374,7 +374,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -383,7 +383,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Sadek</t>
@@ -398,7 +398,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -407,7 +407,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ankur</t>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="255">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -1386,6 +1386,12 @@
   </si>
   <si>
     <t>Date :29.09.2021</t>
+  </si>
+  <si>
+    <t>16-31 August</t>
+  </si>
+  <si>
+    <t>1-15 sep'21</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1402,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1804,19 +1810,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -3757,6 +3750,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3781,12 +3798,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3806,24 +3817,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4543,9 +4536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4556,70 +4549,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="344" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
-      <c r="N1" s="336"/>
-      <c r="O1" s="336"/>
-      <c r="P1" s="336"/>
-      <c r="Q1" s="336"/>
-      <c r="R1" s="336"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="344"/>
+      <c r="H1" s="344"/>
+      <c r="I1" s="344"/>
+      <c r="J1" s="344"/>
+      <c r="K1" s="344"/>
+      <c r="L1" s="344"/>
+      <c r="M1" s="344"/>
+      <c r="N1" s="344"/>
+      <c r="O1" s="344"/>
+      <c r="P1" s="344"/>
+      <c r="Q1" s="344"/>
+      <c r="R1" s="344"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="337" t="s">
+      <c r="A2" s="345" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="337"/>
-      <c r="K2" s="337"/>
-      <c r="L2" s="337"/>
-      <c r="M2" s="337"/>
-      <c r="N2" s="337"/>
-      <c r="O2" s="337"/>
-      <c r="P2" s="337"/>
-      <c r="Q2" s="337"/>
-      <c r="R2" s="337"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
+      <c r="O2" s="345"/>
+      <c r="P2" s="345"/>
+      <c r="Q2" s="345"/>
+      <c r="R2" s="345"/>
     </row>
     <row r="3" spans="1:25" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="346" t="s">
+      <c r="A3" s="352" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
-      <c r="I3" s="347"/>
-      <c r="J3" s="347"/>
-      <c r="K3" s="347"/>
-      <c r="L3" s="347"/>
-      <c r="M3" s="347"/>
-      <c r="N3" s="347"/>
-      <c r="O3" s="347"/>
-      <c r="P3" s="347"/>
-      <c r="Q3" s="347"/>
-      <c r="R3" s="348"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="353"/>
+      <c r="Q3" s="353"/>
+      <c r="R3" s="354"/>
       <c r="T3" s="69"/>
       <c r="U3" s="70"/>
       <c r="V3" s="70"/>
@@ -4628,55 +4621,55 @@
       <c r="Y3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="338" t="s">
+      <c r="A4" s="346" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="340" t="s">
+      <c r="B4" s="348" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="340" t="s">
+      <c r="C4" s="348" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="334" t="s">
+      <c r="D4" s="342" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="334" t="s">
+      <c r="E4" s="342" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="334" t="s">
+      <c r="F4" s="342" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="334" t="s">
+      <c r="G4" s="342" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="334" t="s">
+      <c r="H4" s="342" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="334" t="s">
+      <c r="I4" s="342" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="334" t="s">
+      <c r="J4" s="342" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="349" t="s">
+      <c r="K4" s="355" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="342" t="s">
+      <c r="L4" s="334" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="351" t="s">
+      <c r="M4" s="336" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="353" t="s">
+      <c r="N4" s="338" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="355" t="s">
+      <c r="O4" s="340" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="342" t="s">
+      <c r="P4" s="334" t="s">
         <v>141</v>
       </c>
-      <c r="Q4" s="344" t="s">
+      <c r="Q4" s="350" t="s">
         <v>246</v>
       </c>
       <c r="R4" s="194" t="s">
@@ -4689,23 +4682,23 @@
       <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:25" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="339"/>
-      <c r="B5" s="341"/>
-      <c r="C5" s="341"/>
-      <c r="D5" s="335"/>
-      <c r="E5" s="335"/>
-      <c r="F5" s="335"/>
-      <c r="G5" s="335"/>
-      <c r="H5" s="335"/>
-      <c r="I5" s="335"/>
-      <c r="J5" s="335"/>
-      <c r="K5" s="350"/>
-      <c r="L5" s="343"/>
-      <c r="M5" s="352"/>
-      <c r="N5" s="354"/>
-      <c r="O5" s="356"/>
-      <c r="P5" s="343"/>
-      <c r="Q5" s="345"/>
+      <c r="A5" s="347"/>
+      <c r="B5" s="349"/>
+      <c r="C5" s="349"/>
+      <c r="D5" s="343"/>
+      <c r="E5" s="343"/>
+      <c r="F5" s="343"/>
+      <c r="G5" s="343"/>
+      <c r="H5" s="343"/>
+      <c r="I5" s="343"/>
+      <c r="J5" s="343"/>
+      <c r="K5" s="356"/>
+      <c r="L5" s="335"/>
+      <c r="M5" s="337"/>
+      <c r="N5" s="339"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="335"/>
+      <c r="Q5" s="351"/>
       <c r="R5" s="195" t="s">
         <v>30</v>
       </c>
@@ -7767,14 +7760,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7787,6 +7772,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9888,8 +9881,8 @@
   </sheetPr>
   <dimension ref="B1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11326,8 +11319,8 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15223,8 +15216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN167"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15527,7 +15520,7 @@
         <v>37436</v>
       </c>
       <c r="K8" s="99">
-        <f t="shared" ref="K8:K21" si="0">J8/191</f>
+        <f t="shared" ref="K8:K23" si="0">J8/191</f>
         <v>196</v>
       </c>
       <c r="L8" s="260"/>
@@ -16246,9 +16239,16 @@
       <c r="F22" s="260"/>
       <c r="G22" s="260"/>
       <c r="H22" s="260"/>
-      <c r="I22" s="260"/>
-      <c r="J22" s="260"/>
-      <c r="K22" s="260"/>
+      <c r="I22" s="231" t="s">
+        <v>253</v>
+      </c>
+      <c r="J22" s="231">
+        <v>90916</v>
+      </c>
+      <c r="K22" s="231">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
       <c r="L22" s="260"/>
       <c r="M22" s="260"/>
       <c r="N22" s="260"/>
@@ -16288,9 +16288,16 @@
       <c r="F23" s="260"/>
       <c r="G23" s="260"/>
       <c r="H23" s="260"/>
-      <c r="I23" s="260"/>
-      <c r="J23" s="260"/>
-      <c r="K23" s="260"/>
+      <c r="I23" s="231" t="s">
+        <v>254</v>
+      </c>
+      <c r="J23" s="231">
+        <v>85186</v>
+      </c>
+      <c r="K23" s="231">
+        <f t="shared" si="0"/>
+        <v>446</v>
+      </c>
       <c r="L23" s="260"/>
       <c r="M23" s="260"/>
       <c r="N23" s="260"/>
